--- a/2022/Symphony/AUGUST/25.08.2022/MC Bank Statement Aug-2022.xlsx
+++ b/2022/Symphony/AUGUST/25.08.2022/MC Bank Statement Aug-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -9648,11 +9648,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9667,6 +9662,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9680,8 +9680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17845,11 +17845,21 @@
       <c r="CS73" s="137"/>
     </row>
     <row r="74" spans="1:97">
-      <c r="A74" s="312"/>
-      <c r="B74" s="313"/>
-      <c r="C74" s="314"/>
-      <c r="D74" s="315"/>
-      <c r="E74" s="316"/>
+      <c r="A74" s="312" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="313" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="314">
+        <v>1811710431</v>
+      </c>
+      <c r="D74" s="315">
+        <v>1960</v>
+      </c>
+      <c r="E74" s="317" t="s">
+        <v>166</v>
+      </c>
       <c r="F74" s="133"/>
       <c r="G74" s="137"/>
       <c r="H74" s="174" t="s">
@@ -17962,13 +17972,13 @@
         <v>109</v>
       </c>
       <c r="C75" s="320">
-        <v>1811710431</v>
-      </c>
-      <c r="D75" s="315">
-        <v>1960</v>
-      </c>
-      <c r="E75" s="317" t="s">
-        <v>166</v>
+        <v>1750481144</v>
+      </c>
+      <c r="D75" s="318">
+        <v>29160</v>
+      </c>
+      <c r="E75" s="319" t="s">
+        <v>124</v>
       </c>
       <c r="F75" s="131"/>
       <c r="G75" s="137"/>
@@ -18078,19 +18088,17 @@
     </row>
     <row r="76" spans="1:97">
       <c r="A76" s="312" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="B76" s="313" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="314">
-        <v>1750481144</v>
-      </c>
-      <c r="D76" s="318">
-        <v>29160</v>
-      </c>
-      <c r="E76" s="319" t="s">
-        <v>124</v>
+        <v>209</v>
+      </c>
+      <c r="C76" s="314"/>
+      <c r="D76" s="315">
+        <v>5650</v>
+      </c>
+      <c r="E76" s="317" t="s">
+        <v>207</v>
       </c>
       <c r="F76" s="131"/>
       <c r="G76" s="137"/>
@@ -18201,14 +18209,14 @@
         <v>197</v>
       </c>
       <c r="B77" s="313" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C77" s="314"/>
       <c r="D77" s="315">
-        <v>5650</v>
-      </c>
-      <c r="E77" s="317" t="s">
-        <v>207</v>
+        <v>4000</v>
+      </c>
+      <c r="E77" s="316" t="s">
+        <v>225</v>
       </c>
       <c r="F77" s="137"/>
       <c r="G77" s="137"/>
@@ -18318,14 +18326,14 @@
       <c r="A78" s="312" t="s">
         <v>197</v>
       </c>
-      <c r="B78" s="313" t="s">
-        <v>220</v>
+      <c r="B78" s="323" t="s">
+        <v>227</v>
       </c>
       <c r="C78" s="314"/>
       <c r="D78" s="315">
-        <v>4000</v>
-      </c>
-      <c r="E78" s="316" t="s">
+        <v>7000</v>
+      </c>
+      <c r="E78" s="317" t="s">
         <v>225</v>
       </c>
       <c r="F78" s="267"/>
@@ -19945,19 +19953,11 @@
       <c r="CS91" s="137"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="312" t="s">
-        <v>197</v>
-      </c>
-      <c r="B92" s="323" t="s">
-        <v>227</v>
-      </c>
+      <c r="A92" s="312"/>
+      <c r="B92" s="313"/>
       <c r="C92" s="314"/>
-      <c r="D92" s="315">
-        <v>7000</v>
-      </c>
-      <c r="E92" s="317" t="s">
-        <v>225</v>
-      </c>
+      <c r="D92" s="315"/>
+      <c r="E92" s="316"/>
       <c r="F92" s="267"/>
       <c r="G92" s="137"/>
       <c r="H92" s="186"/>
@@ -34186,8 +34186,8 @@
   </sheetPr>
   <dimension ref="A1:Y202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
